--- a/PUC-CENTRO COSTOS SYNERGY.xlsx
+++ b/PUC-CENTRO COSTOS SYNERGY.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscomejia/Documents/Documents - Francisco’s Laptop/Python_app/invoice_app/facturas_separadas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6284EF-5656-7342-BA1C-2DACDF6880FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A88F6D7-02FE-564B-B714-BB08459F24BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{50E66D6A-08B0-463C-8172-7D97577DB069}"/>
   </bookViews>
   <sheets>
     <sheet name="CENTRO DE COSTOS" sheetId="1" r:id="rId1"/>
     <sheet name="PUC" sheetId="2" r:id="rId2"/>
+    <sheet name="IVA descontable" sheetId="4" r:id="rId3"/>
+    <sheet name="Cuentas retefuente" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PUC!$A$1:$V$1828</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12843" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12894" uniqueCount="1267">
   <si>
     <t xml:space="preserve">NOMBRE                                            </t>
   </si>
@@ -3727,6 +3729,117 @@
   </si>
   <si>
     <t xml:space="preserve">CUENTA PUENTE                                     </t>
+  </si>
+  <si>
+    <t>Honorarios 11%</t>
+  </si>
+  <si>
+    <t>persona natural solo 10%</t>
+  </si>
+  <si>
+    <t>Fletes</t>
+  </si>
+  <si>
+    <t>3300 uvts por encima va al 11%</t>
+  </si>
+  <si>
+    <t>Mantenimiento Reparaciones servicios de aseo y limpieza de declarantes</t>
+  </si>
+  <si>
+    <t>Examenes de ingreso</t>
+  </si>
+  <si>
+    <t>Viene en las facturas</t>
+  </si>
+  <si>
+    <t>Hoteles hospedaje</t>
+  </si>
+  <si>
+    <t>2% de retencion factura dice zona Zomac</t>
+  </si>
+  <si>
+    <t>arroz paddy</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>P&amp;G</t>
+  </si>
+  <si>
+    <t>Arroz rechazo</t>
+  </si>
+  <si>
+    <t>Union de arroceros</t>
+  </si>
+  <si>
+    <t>Trae el iva en la factura</t>
+  </si>
+  <si>
+    <t>Comisiones bolsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercados </t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Honorarios o servicios de consultoria</t>
+  </si>
+  <si>
+    <t>Nombre de cuenta/categoria de retencion</t>
+  </si>
+  <si>
+    <t>Honorarios o servicios de consultoria para personas naturales no declarantes hasta 3300 UVT, si la factura pasa este valor se registra en la cuenta de PERSONAS JURIDICAS 11%</t>
+  </si>
+  <si>
+    <t>Fletes, servicio de transporte</t>
+  </si>
+  <si>
+    <t>Examenes de ingreso de personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrendamiento de bodegas, oficinas, casas               </t>
+  </si>
+  <si>
+    <t>Arrendamientos de maquinaria, equipos, estibas, vehiculos</t>
+  </si>
+  <si>
+    <t>Combustibles</t>
+  </si>
+  <si>
+    <t>Arroz Paddy</t>
+  </si>
+  <si>
+    <t>Compras de todo tipo de productos que no pertenecen a las demas categorias</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>Only for invoices booked to Inventory accounts</t>
+  </si>
+  <si>
+    <t>Only for goods invoices booked to P&amp;L accounts</t>
+  </si>
+  <si>
+    <t>Only for services invoices booked to P&amp;L accounts</t>
+  </si>
+  <si>
+    <t>Only for invoices booked to Inventory accounts and IVA is 5% ie, some groceries</t>
+  </si>
+  <si>
+    <t>Only for invoices for goods booked to P&amp;L accounts and IVA is 5% ie, some groceries</t>
+  </si>
+  <si>
+    <t>Only for invoices for services booked to P&amp;L accounts and IVA is 5% ie, comisiones de bolsa</t>
   </si>
 </sst>
 </file>
@@ -3890,7 +4003,7 @@
       <name val="Verdana   "/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4076,6 +4189,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4237,13 +4362,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4627,20 +4755,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="23">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
@@ -4655,12 +4783,12 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
@@ -4957,16 +5085,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5E9331-ADAF-4ED5-A3F1-675EA77CA721}">
-  <dimension ref="A1:H1828"/>
+  <dimension ref="A1:J1828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A826" sqref="A826:B828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -22441,7 +22572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:10">
       <c r="A673" s="1">
         <v>236510</v>
       </c>
@@ -22467,7 +22598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:10">
       <c r="A674" s="1">
         <v>236515</v>
       </c>
@@ -22493,7 +22624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:10">
       <c r="A675" s="1">
         <v>23651501</v>
       </c>
@@ -22519,59 +22650,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
-      <c r="A676" s="1">
+    <row r="676" spans="1:10">
+      <c r="A676" s="6">
         <v>23651502</v>
       </c>
-      <c r="B676" s="1" t="s">
+      <c r="B676" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C676" s="1" t="s">
+      <c r="C676" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D676" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E676" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F676" s="1" t="s">
+      <c r="D676" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E676" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F676" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G676" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H676" s="4">
+      <c r="G676" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H676" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="677" spans="1:8">
-      <c r="A677" s="1">
+      <c r="I676" s="6" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10">
+      <c r="A677" s="6">
         <v>23651503</v>
       </c>
-      <c r="B677" s="1" t="s">
+      <c r="B677" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C677" s="1" t="s">
+      <c r="C677" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D677" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E677" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F677" s="1" t="s">
+      <c r="D677" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E677" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F677" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G677" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H677" s="4">
+      <c r="G677" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H677" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="678" spans="1:8">
+      <c r="I677" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J677" s="6" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10">
       <c r="A678" s="1">
         <v>236520</v>
       </c>
@@ -22597,7 +22737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:10">
       <c r="A679" s="1">
         <v>23652001</v>
       </c>
@@ -22623,7 +22763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:10">
       <c r="A680" s="1">
         <v>23652002</v>
       </c>
@@ -22649,7 +22789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:10">
       <c r="A681" s="1">
         <v>23652003</v>
       </c>
@@ -22675,7 +22815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:10">
       <c r="A682" s="1">
         <v>236525</v>
       </c>
@@ -22701,85 +22841,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
-      <c r="A683" s="1">
+    <row r="683" spans="1:10">
+      <c r="A683" s="6">
         <v>23652501</v>
       </c>
-      <c r="B683" s="1" t="s">
+      <c r="B683" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C683" s="1" t="s">
+      <c r="C683" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D683" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E683" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F683" s="1" t="s">
+      <c r="D683" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E683" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F683" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G683" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H683" s="4">
+      <c r="G683" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H683" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="684" spans="1:8">
-      <c r="A684" s="1">
+      <c r="I683" s="6" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10">
+      <c r="A684" s="6">
         <v>23652502</v>
       </c>
-      <c r="B684" s="1" t="s">
+      <c r="B684" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C684" s="1" t="s">
+      <c r="C684" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D684" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E684" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F684" s="1" t="s">
+      <c r="D684" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E684" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F684" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G684" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H684" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="685" spans="1:8">
-      <c r="A685" s="1">
+      <c r="G684" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H684" s="7">
+        <v>4</v>
+      </c>
+      <c r="I684" s="6" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10">
+      <c r="A685" s="6">
         <v>23652503</v>
       </c>
-      <c r="B685" s="1" t="s">
+      <c r="B685" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C685" s="1" t="s">
+      <c r="C685" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D685" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E685" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F685" s="1" t="s">
+      <c r="D685" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E685" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F685" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G685" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H685" s="4">
+      <c r="G685" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H685" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="686" spans="1:8">
+      <c r="I685" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J685" s="6" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10">
       <c r="A686" s="1">
         <v>23652504</v>
       </c>
@@ -22805,59 +22957,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
-      <c r="A687" s="1">
+    <row r="687" spans="1:10">
+      <c r="A687" s="6">
         <v>23652505</v>
       </c>
-      <c r="B687" s="1" t="s">
+      <c r="B687" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C687" s="1" t="s">
+      <c r="C687" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D687" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E687" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F687" s="1" t="s">
+      <c r="D687" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E687" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F687" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G687" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H687" s="4">
+      <c r="G687" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H687" s="7">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="688" spans="1:8">
-      <c r="A688" s="1">
+      <c r="I687" s="6" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10">
+      <c r="A688" s="6">
         <v>23652506</v>
       </c>
-      <c r="B688" s="1" t="s">
+      <c r="B688" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C688" s="1" t="s">
+      <c r="C688" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D688" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E688" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F688" s="1" t="s">
+      <c r="D688" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E688" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F688" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G688" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H688" s="4">
+      <c r="G688" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H688" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="689" spans="1:8">
+      <c r="I688" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9">
       <c r="A689" s="1">
         <v>236530</v>
       </c>
@@ -22883,7 +23041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:9">
       <c r="A690" s="1">
         <v>23653001</v>
       </c>
@@ -22909,7 +23067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:9">
       <c r="A691" s="1">
         <v>23653002</v>
       </c>
@@ -22935,7 +23093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:9">
       <c r="A692" s="1">
         <v>23653003</v>
       </c>
@@ -22961,59 +23119,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
-      <c r="A693" s="1">
+    <row r="693" spans="1:9">
+      <c r="A693" s="6">
         <v>23653004</v>
       </c>
-      <c r="B693" s="1" t="s">
+      <c r="B693" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C693" s="1" t="s">
+      <c r="C693" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D693" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E693" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F693" s="1" t="s">
+      <c r="D693" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E693" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F693" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G693" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H693" s="4">
+      <c r="G693" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H693" s="7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
-      <c r="A694" s="1">
+    <row r="694" spans="1:9">
+      <c r="A694" s="6">
         <v>23653005</v>
       </c>
-      <c r="B694" s="1" t="s">
+      <c r="B694" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C694" s="1" t="s">
+      <c r="C694" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D694" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E694" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F694" s="1" t="s">
+      <c r="D694" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E694" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F694" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G694" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H694" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="695" spans="1:8">
+      <c r="G694" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H694" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9">
       <c r="A695" s="1">
         <v>236535</v>
       </c>
@@ -23039,7 +23197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:9">
       <c r="A696" s="1">
         <v>236540</v>
       </c>
@@ -23065,7 +23223,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:9">
       <c r="A697" s="1">
         <v>236541</v>
       </c>
@@ -23091,7 +23249,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:9">
       <c r="A698" s="1">
         <v>236542</v>
       </c>
@@ -23117,7 +23275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:9">
       <c r="A699" s="1">
         <v>236543</v>
       </c>
@@ -23143,7 +23301,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:9">
       <c r="A700" s="1">
         <v>236545</v>
       </c>
@@ -23169,7 +23327,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:9">
       <c r="A701" s="1">
         <v>236550</v>
       </c>
@@ -23194,8 +23352,9 @@
       <c r="H701" s="4">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="702" spans="1:8">
+      <c r="I701" s="1"/>
+    </row>
+    <row r="702" spans="1:9">
       <c r="A702" s="1">
         <v>236565</v>
       </c>
@@ -23221,7 +23380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:9">
       <c r="A703" s="1">
         <v>236570</v>
       </c>
@@ -23247,33 +23406,33 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
-      <c r="A704" s="1">
+    <row r="704" spans="1:9">
+      <c r="A704" s="6">
         <v>23657001</v>
       </c>
-      <c r="B704" s="1" t="s">
+      <c r="B704" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C704" s="1" t="s">
+      <c r="C704" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D704" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E704" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F704" s="1" t="s">
+      <c r="D704" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E704" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F704" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G704" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H704" s="4">
+      <c r="G704" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H704" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:9">
       <c r="A705" s="1">
         <v>23657002</v>
       </c>
@@ -23299,59 +23458,62 @@
         <v>50</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
-      <c r="A706" s="1">
+    <row r="706" spans="1:9">
+      <c r="A706" s="6">
         <v>23657003</v>
       </c>
-      <c r="B706" s="1" t="s">
+      <c r="B706" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="C706" s="1" t="s">
+      <c r="C706" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D706" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E706" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F706" s="1" t="s">
+      <c r="D706" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E706" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F706" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G706" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H706" s="4">
+      <c r="G706" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H706" s="7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
-      <c r="A707" s="1">
+    <row r="707" spans="1:9">
+      <c r="A707" s="6">
         <v>23657004</v>
       </c>
-      <c r="B707" s="1" t="s">
+      <c r="B707" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C707" s="1" t="s">
+      <c r="C707" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D707" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E707" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F707" s="1" t="s">
+      <c r="D707" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E707" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F707" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G707" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H707" s="4">
+      <c r="G707" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H707" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="708" spans="1:8">
+      <c r="I707" s="6" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9">
       <c r="A708" s="1">
         <v>23657005</v>
       </c>
@@ -23377,7 +23539,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:9">
       <c r="A709" s="1">
         <v>23657006</v>
       </c>
@@ -23403,7 +23565,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:9">
       <c r="A710" s="1">
         <v>236575</v>
       </c>
@@ -23429,7 +23591,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:9">
       <c r="A711" s="1">
         <v>23657501</v>
       </c>
@@ -23455,7 +23617,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:9">
       <c r="A712" s="1">
         <v>23657502</v>
       </c>
@@ -23481,7 +23643,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:9">
       <c r="A713" s="1">
         <v>236590</v>
       </c>
@@ -23507,7 +23669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:9">
       <c r="A714" s="1">
         <v>236595</v>
       </c>
@@ -23533,7 +23695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:9">
       <c r="A715" s="1">
         <v>2367</v>
       </c>
@@ -23559,7 +23721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:9">
       <c r="A716" s="1">
         <v>236701</v>
       </c>
@@ -23585,7 +23747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:9">
       <c r="A717" s="1">
         <v>236707</v>
       </c>
@@ -23611,7 +23773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:9">
       <c r="A718" s="1">
         <v>23670701</v>
       </c>
@@ -23637,7 +23799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:9">
       <c r="A719" s="1">
         <v>23670702</v>
       </c>
@@ -23663,7 +23825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:9">
       <c r="A720" s="1">
         <v>23670703</v>
       </c>
@@ -26185,7 +26347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:9">
       <c r="A817" s="1">
         <v>24080402</v>
       </c>
@@ -26211,7 +26373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:9">
       <c r="A818" s="1">
         <v>240805</v>
       </c>
@@ -26237,75 +26399,75 @@
         <v>50</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
-      <c r="A819" s="1">
+    <row r="819" spans="1:9">
+      <c r="A819" s="8">
         <v>24080501</v>
       </c>
-      <c r="B819" s="1" t="s">
+      <c r="B819" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="C819" s="1" t="s">
+      <c r="C819" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D819" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E819" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F819" s="1" t="s">
+      <c r="D819" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E819" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F819" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>48</v>
+        <v>1240</v>
       </c>
       <c r="H819" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
-      <c r="A820" s="1">
+    <row r="820" spans="1:9">
+      <c r="A820" s="8">
         <v>24080502</v>
       </c>
-      <c r="B820" s="1" t="s">
+      <c r="B820" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="C820" s="1" t="s">
+      <c r="C820" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D820" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E820" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F820" s="1" t="s">
+      <c r="D820" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E820" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F820" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>48</v>
+        <v>1241</v>
       </c>
       <c r="H820" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
-      <c r="A821" s="1">
+    <row r="821" spans="1:9">
+      <c r="A821" s="8">
         <v>24080503</v>
       </c>
-      <c r="B821" s="1" t="s">
+      <c r="B821" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="C821" s="1" t="s">
+      <c r="C821" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D821" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E821" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F821" s="1" t="s">
+      <c r="D821" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E821" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F821" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G821" s="1" t="s">
@@ -26315,7 +26477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:9">
       <c r="A822" s="1">
         <v>24080504</v>
       </c>
@@ -26341,7 +26503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:9">
       <c r="A823" s="1">
         <v>2408050401</v>
       </c>
@@ -26367,7 +26529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:9">
       <c r="A824" s="1">
         <v>2408050402</v>
       </c>
@@ -26393,7 +26555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:9">
       <c r="A825" s="1">
         <v>2408050403</v>
       </c>
@@ -26419,85 +26581,88 @@
         <v>50</v>
       </c>
     </row>
-    <row r="826" spans="1:8">
-      <c r="A826" s="1">
+    <row r="826" spans="1:9">
+      <c r="A826" s="8">
         <v>24080505</v>
       </c>
-      <c r="B826" s="1" t="s">
+      <c r="B826" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="C826" s="1" t="s">
+      <c r="C826" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D826" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E826" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F826" s="1" t="s">
+      <c r="D826" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E826" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F826" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>48</v>
+        <v>1242</v>
       </c>
       <c r="H826" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="827" spans="1:8">
-      <c r="A827" s="1">
+        <v>1243</v>
+      </c>
+      <c r="I826" s="8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9">
+      <c r="A827" s="8">
         <v>24080506</v>
       </c>
-      <c r="B827" s="1" t="s">
+      <c r="B827" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="C827" s="1" t="s">
+      <c r="C827" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D827" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E827" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F827" s="1" t="s">
+      <c r="D827" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E827" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F827" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>48</v>
+        <v>1246</v>
       </c>
       <c r="H827" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
-      <c r="A828" s="1">
+    <row r="828" spans="1:9">
+      <c r="A828" s="8">
         <v>24080507</v>
       </c>
-      <c r="B828" s="1" t="s">
+      <c r="B828" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="C828" s="1" t="s">
+      <c r="C828" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D828" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E828" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F828" s="1" t="s">
+      <c r="D828" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E828" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F828" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>48</v>
+        <v>1245</v>
       </c>
       <c r="H828" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:9">
       <c r="A829" s="1">
         <v>24080508</v>
       </c>
@@ -26523,7 +26688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:9">
       <c r="A830" s="1">
         <v>240806</v>
       </c>
@@ -26549,7 +26714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:9">
       <c r="A831" s="1">
         <v>240807</v>
       </c>
@@ -26575,7 +26740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:9">
       <c r="A832" s="1">
         <v>24080701</v>
       </c>
@@ -52501,4 +52666,251 @@
   <autoFilter ref="A1:V1828" xr:uid="{6F5E9331-ADAF-4ED5-A3F1-675EA77CA721}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4197947-A299-3F44-B82E-9B220C51C07A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8">
+        <v>24080501</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8">
+        <v>24080502</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
+        <v>24080503</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8">
+        <v>24080505</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
+        <v>24080506</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
+        <v>24080507</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA7A805-1375-FC4C-A6B4-B24A9B8891FD}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6">
+        <v>23651502</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>23651503</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
+        <v>23652501</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
+        <v>23652502</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6">
+        <v>23652503</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6">
+        <v>23652505</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6">
+        <v>23653004</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6">
+        <v>23653005</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>23657001</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>23657003</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>23657004</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>